--- a/results/mod1.strain.eff.COMB.xlsx
+++ b/results/mod1.strain.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.384370770725314</v>
+        <v>0.384368611963419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0186136252789463</v>
+        <v>0.0186135337316526</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.347888735556855</v>
+        <v>0.347886756224358</v>
       </c>
       <c r="F2" t="n">
-        <v>0.420852805893774</v>
+        <v>0.420850467702479</v>
       </c>
       <c r="G2" t="n">
-        <v>20.6499682337579</v>
+        <v>20.6499538188063</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000976840469012406</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000977131965562517</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.210750270664523</v>
+        <v>0.210749338570202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0127455912322344</v>
+        <v>0.0127455406238103</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.185769370887674</v>
+        <v>0.185768537984042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.235731170441372</v>
+        <v>0.235730139156363</v>
       </c>
       <c r="G3" t="n">
-        <v>16.5351506120424</v>
+        <v>16.5351431367686</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000204865472063146</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000204890887936006</v>
       </c>
     </row>
   </sheetData>
